--- a/BD/Modelagens/LovePets.xlsx
+++ b/BD/Modelagens/LovePets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45763910893\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45763910893\Desktop\lovePets\BD\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8F5279-1195-46CE-8B59-34DAE67A3159}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33E1A80-74B1-405C-B4CC-4881026DEAC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" tabRatio="595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Físico" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>IDclinica</t>
   </si>
@@ -31,84 +31,12 @@
     <t>Dono</t>
   </si>
   <si>
-    <t>Avenida Inajar de Souza, 3562</t>
-  </si>
-  <si>
-    <t>Petz</t>
-  </si>
-  <si>
-    <t>Átila</t>
-  </si>
-  <si>
-    <t>Mauro</t>
-  </si>
-  <si>
-    <t>Amenadiel</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Adele</t>
-  </si>
-  <si>
-    <t>Fábio</t>
-  </si>
-  <si>
-    <t>Seraphine</t>
-  </si>
-  <si>
-    <t>Júlia</t>
-  </si>
-  <si>
-    <t>Brigadeiro</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Gilberto</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Ana Luiza</t>
-  </si>
-  <si>
-    <t>Elaine</t>
-  </si>
-  <si>
     <t>Cachorro</t>
   </si>
   <si>
-    <t>Shih-tzu</t>
-  </si>
-  <si>
     <t>Gato</t>
   </si>
   <si>
-    <t>Basset</t>
-  </si>
-  <si>
-    <t>Pássaro</t>
-  </si>
-  <si>
-    <t>Maine Coon</t>
-  </si>
-  <si>
-    <t>Calopsita</t>
-  </si>
-  <si>
-    <t>Papagaio</t>
-  </si>
-  <si>
-    <t>Sphynx</t>
-  </si>
-  <si>
     <t>Endereco</t>
   </si>
   <si>
@@ -194,13 +122,52 @@
   </si>
   <si>
     <t>IdVeterinario</t>
+  </si>
+  <si>
+    <t>Poodle</t>
+  </si>
+  <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>SRD</t>
+  </si>
+  <si>
+    <t>Siamês</t>
+  </si>
+  <si>
+    <t>Saulo</t>
+  </si>
+  <si>
+    <t>Caique</t>
+  </si>
+  <si>
+    <t>Al. Barão de Limeira, 538</t>
+  </si>
+  <si>
+    <t>lovePets</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Odirlei</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Loli</t>
+  </si>
+  <si>
+    <t>Sammy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,21 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,12 +263,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -334,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -343,148 +289,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,19 +415,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -823,19 +653,112 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -843,6 +766,36 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -851,168 +804,186 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,97 +1313,95 @@
     <col min="5" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
     <col min="14" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="57"/>
-      <c r="G1" s="42" t="s">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="G1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="35"/>
-      <c r="M1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="24"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="M2" s="27" t="s">
+      <c r="H1" s="47"/>
+      <c r="M1" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="C3" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="26">
+        <v>99999999999999</v>
+      </c>
+      <c r="G3" s="22">
+        <v>1</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
-        <v>1</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="50">
-        <v>99999999999999</v>
-      </c>
-      <c r="G3" s="46">
-        <v>1</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="37"/>
-      <c r="M3" s="29">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O3" s="4">
         <v>43087</v>
@@ -1440,374 +1409,246 @@
       <c r="P3" s="3">
         <v>1</v>
       </c>
-      <c r="Q3" s="30">
-        <v>3</v>
-      </c>
-      <c r="R3" s="26"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G4" s="46">
+      <c r="Q3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="23">
         <v>2</v>
       </c>
-      <c r="H4" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="M4" s="29">
+      <c r="H4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="11">
         <v>2</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="O4" s="4">
         <v>39979</v>
       </c>
       <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="13">
+        <v>3</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="15">
+        <v>42192</v>
+      </c>
+      <c r="P5" s="14">
         <v>2</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="53"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58">
         <v>2</v>
       </c>
-      <c r="R4" s="26"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G5" s="46">
+      <c r="B11" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="63">
+        <v>1</v>
+      </c>
+      <c r="B19" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="36"/>
-      <c r="M5" s="29">
+      <c r="D19" s="69">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65">
+        <v>2</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="69">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="69">
         <v>3</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O5" s="4">
-        <v>42192</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="71">
+        <v>4</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="73">
         <v>3</v>
       </c>
-      <c r="Q5" s="30">
-        <v>1</v>
-      </c>
-      <c r="R5" s="26"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G6" s="46">
-        <v>4</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="M6" s="29">
-        <v>4</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="4">
-        <v>43886</v>
-      </c>
-      <c r="P6" s="3">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>4</v>
-      </c>
-      <c r="R6" s="26"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G7" s="46">
-        <v>5</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="M7" s="29">
-        <v>5</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="4">
-        <v>41245</v>
-      </c>
-      <c r="P7" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="30">
-        <v>6</v>
-      </c>
-      <c r="R7" s="26"/>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="G8" s="47">
-        <v>6</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="31">
-        <v>6</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="33">
-        <v>37571</v>
-      </c>
-      <c r="P8" s="32">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="34">
-        <v>5</v>
-      </c>
-      <c r="R8" s="26"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="42"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H24" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="76">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="77">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="78">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M15" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="75"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M16" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="O16" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q16" s="72" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="76"/>
-      <c r="G17" s="69" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="M17" s="21">
-        <v>1</v>
-      </c>
-      <c r="N17" s="21">
-        <v>1</v>
-      </c>
-      <c r="O17" s="22">
-        <v>1</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q17" s="23">
-        <v>44392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="21">
+      <c r="I26" s="79">
         <v>2</v>
       </c>
-      <c r="N18" s="21">
+      <c r="J26" s="80">
         <v>2</v>
       </c>
-      <c r="O18" s="22">
-        <v>2</v>
-      </c>
-      <c r="P18" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q18" s="23">
+      <c r="K26" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="82">
         <v>44393</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>1</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>2</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="10">
-        <v>2</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <v>3</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="10">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I21" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G22" s="10">
-        <v>4</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G23" s="10">
-        <v>5</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="12">
-        <v>6</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I24" s="14">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="H23:L23"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="G17:I17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
